--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A781F57-41BC-4A17-AC95-10DEE2ABE233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7D9AE-B41A-4007-BDC4-F4A4E516295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
-    <sheet name="PE, NOVEMBER" sheetId="6" r:id="rId2"/>
+    <sheet name="PE, DECEMBER" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'PE, NOVEMBER'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'PE, DECEMBER'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2349,9 @@
       <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19">
+        <v>45973</v>
+      </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
       </c>
@@ -2357,22 +2359,27 @@
       <c r="F7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20">
+        <v>518184389</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <f>1353132-110674.04</f>
+        <v>1242457.96</v>
+      </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>0</v>
+        <v>133120.4957142857</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>0</v>
+        <v>1109337.4642857143</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>0</v>
+        <v>11093.374642857143</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -3105,19 +3112,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>0</v>
+        <v>1242457.96</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>0</v>
+        <v>133120.4957142857</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>0</v>
+        <v>1109337.4642857143</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>0</v>
+        <v>11093.374642857143</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7D9AE-B41A-4007-BDC4-F4A4E516295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E723B8-49E8-464F-98F1-7A917BACB8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>46003</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2401,22 +2403,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>518189209</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2428,7 +2435,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>46003</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2436,22 +2445,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>518188807</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3112,19 +3126,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1242457.96</v>
+        <v>3836211.88</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>133120.4957142857</v>
+        <v>411022.70142857142</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1109337.4642857143</v>
+        <v>3425189.1785714282</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11093.374642857143</v>
+        <v>34251.891785714281</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E723B8-49E8-464F-98F1-7A917BACB8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF0C75-4E29-475C-8F65-30E0F2C00FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>DECEMBER 2025</t>
+  </si>
+  <si>
+    <t>12/13/2025</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2217,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2480,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2485,22 +2490,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>518193625</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3126,19 +3136,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>3836211.88</v>
+        <v>5133088.84</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>411022.70142857142</v>
+        <v>549973.80428571429</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>3425189.1785714282</v>
+        <v>4583115.0357142854</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>34251.891785714281</v>
+        <v>45831.150357142847</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF0C75-4E29-475C-8F65-30E0F2C00FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC290C0-BB1B-4874-B381-A69ED6ECDAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>12/13/2025</t>
+  </si>
+  <si>
+    <t>12/15/2025</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2220,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2525,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2530,22 +2535,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>518197755</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1418790-58412.88</f>
+        <v>1360377.12</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>145754.69142857144</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1214622.4285714286</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12146.224285714286</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3136,19 +3146,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5133088.84</v>
+        <v>6493465.96</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>549973.80428571429</v>
+        <v>695728.49571428576</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>4583115.0357142854</v>
+        <v>5797737.4642857146</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>45831.150357142847</v>
+        <v>57977.374642857132</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC290C0-BB1B-4874-B381-A69ED6ECDAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115C4E9-41B5-4872-8ED6-C740638D49E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>12/15/2025</t>
+  </si>
+  <si>
+    <t>12/16/2025</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2223,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2570,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2575,22 +2580,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>518203057</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1317381-52927.83</f>
+        <v>1264453.17</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135477.12535714285</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1128976.044642857</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11289.760446428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3146,19 +3156,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>6493465.96</v>
+        <v>7757919.1299999999</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>695728.49571428576</v>
+        <v>831205.62107142864</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>5797737.4642857146</v>
+        <v>6926713.5089285718</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>57977.374642857132</v>
+        <v>69267.135089285701</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115C4E9-41B5-4872-8ED6-C740638D49E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE89D2-7728-4C7F-B0BD-0C49B2A3E630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>12/16/2025</t>
+  </si>
+  <si>
+    <t>12/17/2025</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2615,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2620,22 +2625,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>518208019</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2647,7 +2657,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2655,22 +2667,27 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>518207445</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3156,19 +3173,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>7757919.1299999999</v>
+        <v>10351673.050000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>831205.62107142864</v>
+        <v>1109107.8267857144</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>6926713.5089285718</v>
+        <v>9242565.2232142854</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>69267.135089285701</v>
+        <v>92425.652232142835</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE89D2-7728-4C7F-B0BD-0C49B2A3E630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89E8A7-D056-4B32-89AE-5F9CD3B5F802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>12/17/2025</t>
+  </si>
+  <si>
+    <t>12/18/2025</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2702,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2707,22 +2712,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>518212442</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2734,7 +2744,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2742,22 +2754,28 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <f>518212935</f>
+        <v>518212935</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,19 +3191,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>10351673.050000001</v>
+        <v>12945426.970000003</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1109107.8267857144</v>
+        <v>1387010.0325000002</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>9242565.2232142854</v>
+        <v>11558416.937499998</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>92425.652232142835</v>
+        <v>115584.16937499997</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89E8A7-D056-4B32-89AE-5F9CD3B5F802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93C135-20F2-47EE-9A0C-D57F7E644823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>12/18/2025</t>
+  </si>
+  <si>
+    <t>12/19/2025</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2232,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,7 +2790,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2795,22 +2800,28 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <f>518218240</f>
+        <v>518218240</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2822,7 +2833,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2830,22 +2843,27 @@
       <c r="F18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>518217785</v>
+      </c>
       <c r="H18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f>1353132-101139.54</f>
+        <v>1251992.46</v>
+      </c>
       <c r="K18" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>134142.04928571428</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1117850.4107142857</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11178.504107142857</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3191,19 +3209,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>12945426.970000003</v>
+        <v>15494296.390000004</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1387010.0325000002</v>
+        <v>1660103.1846428574</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>11558416.937499998</v>
+        <v>13834193.20535714</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>115584.16937499997</v>
+        <v>138341.93205357139</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93C135-20F2-47EE-9A0C-D57F7E644823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4220E4-E4F8-45AC-AE8B-F6FE29DC73F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2232,7 +2232,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4220E4-E4F8-45AC-AE8B-F6FE29DC73F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E6BDD-17EE-4CC3-B36A-F2FA82B68A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="83">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>12/19/2025</t>
+  </si>
+  <si>
+    <t>12/22/2025</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2235,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,7 +2878,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
@@ -2883,22 +2888,27 @@
       <c r="F19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>518228713</v>
+      </c>
       <c r="H19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <f>1363925-55554.56</f>
+        <v>1308370.44</v>
+      </c>
       <c r="K19" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140182.54714285713</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1168187.8928571427</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11681.878928571428</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3209,19 +3219,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>15494296.390000004</v>
+        <v>16802666.830000006</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1660103.1846428574</v>
+        <v>1800285.7317857146</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>13834193.20535714</v>
+        <v>15002381.098214284</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>138341.93205357139</v>
+        <v>150023.81098214281</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E6BDD-17EE-4CC3-B36A-F2FA82B68A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFFA56-D8D1-44B6-9FD8-3A9B6AA5C50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>12/22/2025</t>
+  </si>
+  <si>
+    <t>12/23/2025</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2238,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2923,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2928,22 +2933,27 @@
       <c r="F20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>518235184</v>
+      </c>
       <c r="H20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21">
+        <f>1215326-51104.12</f>
+        <v>1164221.8799999999</v>
+      </c>
       <c r="K20" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124738.05857142856</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1039483.8214285714</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10394.838214285714</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,19 +3229,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>16802666.830000006</v>
+        <v>17966888.710000005</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1800285.7317857146</v>
+        <v>1925023.7903571432</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>15002381.098214284</v>
+        <v>16041864.919642854</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>150023.81098214281</v>
+        <v>160418.64919642851</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFFA56-D8D1-44B6-9FD8-3A9B6AA5C50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76816C-36AC-45B9-9B67-2A7DC785A2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>12/23/2025</t>
+  </si>
+  <si>
+    <t>12/24/2025</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2241,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2968,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2973,22 +2978,27 @@
       <c r="F21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>518239244</v>
+      </c>
       <c r="H21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M21" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3000,7 +3010,9 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>68</v>
       </c>
@@ -3008,22 +3020,27 @@
       <c r="F22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>518239897</v>
+      </c>
       <c r="H22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K22" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L22" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M22" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3229,19 +3246,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>17966888.710000005</v>
+        <v>20560642.630000006</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1925023.7903571432</v>
+        <v>2202925.996071429</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>16041864.919642854</v>
+        <v>18357716.633928571</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>160418.64919642851</v>
+        <v>183577.16633928564</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76816C-36AC-45B9-9B67-2A7DC785A2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEED910-45DB-4CE9-8868-2EA4C0287000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>12/24/2025</t>
+  </si>
+  <si>
+    <t>12/26/2025</t>
+  </si>
+  <si>
+    <t>12/27/2025</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2247,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3058,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D23" s="20" t="s">
         <v>68</v>
       </c>
@@ -3060,22 +3068,27 @@
       <c r="F23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>518247600</v>
+      </c>
       <c r="H23" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21">
+        <f>1268878-54783.24</f>
+        <v>1214094.76</v>
+      </c>
       <c r="K23" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>130081.58142857143</v>
       </c>
       <c r="L23" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1084013.1785714286</v>
       </c>
       <c r="M23" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10840.131785714286</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3087,7 +3100,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D24" s="20" t="s">
         <v>68</v>
       </c>
@@ -3095,22 +3110,27 @@
       <c r="F24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>518247619</v>
+      </c>
       <c r="H24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="21">
+        <f>1270313-50936.09</f>
+        <v>1219376.9099999999</v>
+      </c>
       <c r="K24" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>130647.52607142857</v>
       </c>
       <c r="L24" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1088729.3839285714</v>
       </c>
       <c r="M24" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10887.293839285714</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3122,7 +3142,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="D25" s="20" t="s">
         <v>68</v>
       </c>
@@ -3130,22 +3152,27 @@
       <c r="F25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>518248031</v>
+      </c>
       <c r="H25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="21">
+        <f>1135766-47710.13</f>
+        <v>1088055.8700000001</v>
+      </c>
       <c r="K25" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116577.41464285715</v>
       </c>
       <c r="L25" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>971478.45535714296</v>
       </c>
       <c r="M25" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9714.7845535714296</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3246,19 +3273,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>20560642.630000006</v>
+        <v>24082170.170000009</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>2202925.996071429</v>
+        <v>2580232.5182142863</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>18357716.633928571</v>
+        <v>21501937.651785713</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>183577.16633928564</v>
+        <v>215019.37651785705</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEED910-45DB-4CE9-8868-2EA4C0287000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E49BC3-8437-4A99-9C0B-68187B94EE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>12/27/2025</t>
+  </si>
+  <si>
+    <t>166-562-025-0001</t>
+  </si>
+  <si>
+    <t>166-562-025-0002</t>
+  </si>
+  <si>
+    <t>166-562-025-0003</t>
+  </si>
+  <si>
+    <t>12/28/2025</t>
+  </si>
+  <si>
+    <t>12/29/2025</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423D5057-7111-4BE4-94EA-57775A7107A8}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2476,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:B27" si="1">A8+1</f>
+        <f t="shared" ref="A9:B28" si="1">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="23">
@@ -3184,7 +3199,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="D26" s="20" t="s">
         <v>68</v>
       </c>
@@ -3192,22 +3209,27 @@
       <c r="F26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>518250894</v>
+      </c>
       <c r="H26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="21">
+        <f>1239645-52959.88</f>
+        <v>1186685.1200000001</v>
+      </c>
       <c r="K26" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127144.83428571431</v>
       </c>
       <c r="L26" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1059540.2857142859</v>
       </c>
       <c r="M26" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10595.402857142859</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,7 +3241,9 @@
         <f>B26+1</f>
         <v>21</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="D27" s="20" t="s">
         <v>68</v>
       </c>
@@ -3227,35 +3251,133 @@
       <c r="F27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>518255529</v>
+      </c>
       <c r="H27" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="21">
+        <f>1217047-47608.93</f>
+        <v>1169438.07</v>
+      </c>
       <c r="K27" s="21">
         <f t="shared" ref="K27" si="4">M27*12</f>
-        <v>0</v>
+        <v>125296.93607142857</v>
       </c>
       <c r="L27" s="27">
         <f t="shared" ref="L27" si="5">I27-K27</f>
-        <v>0</v>
+        <v>1044141.1339285715</v>
       </c>
       <c r="M27" s="33">
         <f t="shared" ref="M27" si="6">I27/112</f>
-        <v>0</v>
+        <v>10441.411339285714</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G28"/>
-      <c r="M28" s="34"/>
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="23">
+        <f>B27+1</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="K28" s="21">
+        <f t="shared" ref="K28:K29" si="7">M28*12</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" ref="L28:L29" si="8">I28-K28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" ref="M28:M29" si="9">I28/112</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G29"/>
-      <c r="M29" s="34"/>
+      <c r="A29">
+        <f t="shared" ref="A29" si="10">A28+1</f>
+        <v>23</v>
+      </c>
+      <c r="B29" s="23">
+        <f>B28+1</f>
+        <v>23</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="K29" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30"/>
-      <c r="M30" s="34"/>
+      <c r="A30">
+        <f t="shared" ref="A30" si="11">A29+1</f>
+        <v>24</v>
+      </c>
+      <c r="B30" s="23">
+        <f>B29+1</f>
+        <v>24</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="K30" s="21">
+        <f t="shared" ref="K30" si="12">M30*12</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" ref="L30" si="13">I30-K30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" ref="M30" si="14">I30/112</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="23"/>
@@ -3273,19 +3395,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>24082170.170000009</v>
+        <v>26438293.360000011</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>2580232.5182142863</v>
+        <v>2832674.288571429</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>21501937.651785713</v>
+        <v>23605619.071428571</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>215019.37651785705</v>
+        <v>236056.19071428562</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3410,7 +3532,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="21"/>
       <c r="K40" s="21">
-        <f t="shared" ref="K40:K59" si="7">M40*12</f>
+        <f t="shared" ref="K40:K59" si="15">M40*12</f>
         <v>0</v>
       </c>
       <c r="L40" s="27">
@@ -3418,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="33">
-        <f t="shared" ref="M40:M59" si="8">I40/112</f>
+        <f t="shared" ref="M40:M59" si="16">I40/112</f>
         <v>0</v>
       </c>
     </row>
@@ -3434,15 +3556,15 @@
       <c r="H41" s="20"/>
       <c r="I41" s="21"/>
       <c r="K41" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L41" s="27">
-        <f t="shared" ref="L41:L59" si="9">I41-K41</f>
+        <f t="shared" ref="L41:L59" si="17">I41-K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3458,15 +3580,15 @@
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
       <c r="K42" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L42" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M42" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3482,15 +3604,15 @@
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
       <c r="K43" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L43" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M43" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3506,15 +3628,15 @@
       <c r="H44" s="20"/>
       <c r="I44" s="21"/>
       <c r="K44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L44" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M44" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3530,15 +3652,15 @@
       <c r="H45" s="20"/>
       <c r="I45" s="21"/>
       <c r="K45" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L45" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M45" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3554,15 +3676,15 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
       <c r="K46" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L46" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M46" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3578,15 +3700,15 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
       <c r="K47" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L47" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3602,15 +3724,15 @@
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
       <c r="K48" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L48" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M48" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3626,15 +3748,15 @@
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
       <c r="K49" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L49" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M49" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,15 +3772,15 @@
       <c r="H50" s="20"/>
       <c r="I50" s="21"/>
       <c r="K50" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M50" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3674,15 +3796,15 @@
       <c r="H51" s="20"/>
       <c r="I51" s="21"/>
       <c r="K51" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L51" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M51" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,15 +3820,15 @@
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
       <c r="K52" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M52" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3722,15 +3844,15 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
       <c r="K53" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M53" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3746,15 +3868,15 @@
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
       <c r="K54" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M54" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3770,15 +3892,15 @@
       <c r="H55" s="20"/>
       <c r="I55" s="21"/>
       <c r="K55" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L55" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M55" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3794,15 +3916,15 @@
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
       <c r="K56" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L56" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M56" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3818,15 +3940,15 @@
       <c r="H57" s="20"/>
       <c r="I57" s="21"/>
       <c r="K57" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L57" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M57" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3842,15 +3964,15 @@
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
       <c r="K58" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L58" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M58" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3866,15 +3988,15 @@
       <c r="H59" s="20"/>
       <c r="I59" s="21"/>
       <c r="K59" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L59" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M59" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E49BC3-8437-4A99-9C0B-68187B94EE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29D5ED-8592-48DE-8115-C3218D7B8619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>12/29/2025</t>
+  </si>
+  <si>
+    <t>12/30/2025</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2265,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3286,9 @@
         <f>B27+1</f>
         <v>22</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="D28" s="20" t="s">
         <v>68</v>
       </c>
@@ -3291,22 +3296,27 @@
       <c r="F28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>518260891</v>
+      </c>
       <c r="H28" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21">
+        <f>1370757-56692.44</f>
+        <v>1314064.56</v>
+      </c>
       <c r="K28" s="21">
         <f t="shared" ref="K28:K29" si="7">M28*12</f>
-        <v>0</v>
+        <v>140792.63142857142</v>
       </c>
       <c r="L28" s="27">
         <f t="shared" ref="L28:L29" si="8">I28-K28</f>
-        <v>0</v>
+        <v>1173271.9285714286</v>
       </c>
       <c r="M28" s="33">
         <f t="shared" ref="M28:M29" si="9">I28/112</f>
-        <v>0</v>
+        <v>11732.719285714285</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3318,7 +3328,9 @@
         <f>B28+1</f>
         <v>23</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="D29" s="20" t="s">
         <v>68</v>
       </c>
@@ -3326,22 +3338,27 @@
       <c r="F29" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>518260694</v>
+      </c>
       <c r="H29" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="21"/>
+      <c r="I29" s="21">
+        <f>1381586-56953.07</f>
+        <v>1324632.93</v>
+      </c>
       <c r="K29" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>141924.95678571428</v>
       </c>
       <c r="L29" s="27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1182707.9732142857</v>
       </c>
       <c r="M29" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11827.079732142856</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3395,19 +3412,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>26438293.360000011</v>
+        <v>29076990.850000009</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>2832674.288571429</v>
+        <v>3115391.8767857146</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>23605619.071428571</v>
+        <v>25961598.973214287</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>236056.19071428562</v>
+        <v>259615.98973214277</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/PURCHASES - DECEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29D5ED-8592-48DE-8115-C3218D7B8619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B9BD6B-B60D-4C11-A603-A44FDD29195E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -296,15 +296,6 @@
     <t>12/27/2025</t>
   </si>
   <si>
-    <t>166-562-025-0001</t>
-  </si>
-  <si>
-    <t>166-562-025-0002</t>
-  </si>
-  <si>
-    <t>166-562-025-0003</t>
-  </si>
-  <si>
     <t>12/28/2025</t>
   </si>
   <si>
@@ -312,6 +303,9 @@
   </si>
   <si>
     <t>12/30/2025</t>
+  </si>
+  <si>
+    <t>12/31/2025</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423D5057-7111-4BE4-94EA-57775A7107A8}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>68</v>
@@ -3245,7 +3239,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>68</v>
@@ -3287,7 +3281,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>68</v>
@@ -3300,28 +3294,28 @@
         <v>518260891</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I28" s="21">
         <f>1370757-56692.44</f>
         <v>1314064.56</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" ref="K28:K29" si="7">M28*12</f>
+        <f t="shared" ref="K28:K32" si="7">M28*12</f>
         <v>140792.63142857142</v>
       </c>
       <c r="L28" s="27">
-        <f t="shared" ref="L28:L29" si="8">I28-K28</f>
+        <f t="shared" ref="L28:L32" si="8">I28-K28</f>
         <v>1173271.9285714286</v>
       </c>
       <c r="M28" s="33">
-        <f t="shared" ref="M28:M29" si="9">I28/112</f>
+        <f t="shared" ref="M28:M32" si="9">I28/112</f>
         <v>11732.719285714285</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ref="A29" si="10">A28+1</f>
+        <f t="shared" ref="A29:A33" si="10">A28+1</f>
         <v>23</v>
       </c>
       <c r="B29" s="23">
@@ -3329,7 +3323,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>68</v>
@@ -3342,7 +3336,7 @@
         <v>518260694</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I29" s="21">
         <f>1381586-56953.07</f>
@@ -3363,279 +3357,331 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ref="A30" si="11">A29+1</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="23"/>
+      <c r="C30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="20">
+        <v>518264293</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="21">
+        <f>375768-33775.44</f>
+        <v>341992.56</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="7"/>
+        <v>36642.06</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="8"/>
+        <v>305350.5</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="9"/>
+        <v>3053.5050000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="20">
+        <v>518264310</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="21">
+        <f>89951-7489.08</f>
+        <v>82461.919999999998</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="7"/>
+        <v>8835.2057142857138</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="8"/>
+        <v>73626.71428571429</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="9"/>
+        <v>736.26714285714286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="20">
+        <v>518264320</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="21">
+        <f>176250-1223.82</f>
+        <v>175026.18</v>
+      </c>
+      <c r="K32" s="21">
+        <f t="shared" si="7"/>
+        <v>18752.805</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="8"/>
+        <v>156273.375</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" si="9"/>
+        <v>1562.7337499999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="23">
         <f>B29+1</f>
         <v>24</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="K30" s="21">
-        <f t="shared" ref="K30" si="12">M30*12</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="27">
-        <f t="shared" ref="L30" si="13">I30-K30</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="33">
-        <f t="shared" ref="M30" si="14">I30/112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G32"/>
-      <c r="I32" s="14">
-        <f>SUM(I7:I31)</f>
-        <v>29076990.850000009</v>
-      </c>
-      <c r="K32" s="14">
-        <f>SUM(K7:K31)</f>
-        <v>3115391.8767857146</v>
-      </c>
-      <c r="L32" s="14">
-        <f>SUM(L7:L31)</f>
-        <v>25961598.973214287</v>
-      </c>
-      <c r="M32" s="36">
-        <f>SUM(M7:M31)</f>
-        <v>259615.98973214277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G33"/>
+      <c r="C33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="20">
+        <v>518263960</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="21">
+        <f>1973709-77457.15</f>
+        <v>1896251.85</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" ref="K33" si="11">M33*12</f>
+        <v>203169.84107142861</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" ref="L33" si="12">I33-K33</f>
+        <v>1693082.0089285714</v>
+      </c>
+      <c r="M33" s="33">
+        <f t="shared" ref="M33" si="13">I33/112</f>
+        <v>16930.820089285717</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G35"/>
+      <c r="I35" s="14">
+        <f>SUM(I7:I34)</f>
+        <v>31572723.360000011</v>
+      </c>
+      <c r="K35" s="14">
+        <f>SUM(K7:K34)</f>
+        <v>3382791.7885714294</v>
+      </c>
+      <c r="L35" s="14">
+        <f>SUM(L7:L34)</f>
+        <v>28189931.571428571</v>
+      </c>
+      <c r="M35" s="36">
+        <f>SUM(M7:M34)</f>
+        <v>281899.31571428565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="28"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="29"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="30"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="9" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="28"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10" t="s">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M42" s="32">
         <v>2307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="K40" s="21">
-        <f t="shared" ref="K40:K59" si="15">M40*12</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="27">
-        <f>I40-K40</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="33">
-        <f t="shared" ref="M40:M59" si="16">I40/112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="K41" s="21">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="27">
-        <f t="shared" ref="L41:L59" si="17">I41-K41</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="K42" s="21">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="20"/>
       <c r="G43" s="39"/>
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
       <c r="K43" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K43:K62" si="14">M43*12</f>
         <v>0</v>
       </c>
       <c r="L43" s="27">
-        <f t="shared" si="17"/>
+        <f>I43-K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M43:M62" si="15">I43/112</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
@@ -3645,21 +3691,21 @@
       <c r="H44" s="20"/>
       <c r="I44" s="21"/>
       <c r="K44" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="27">
+        <f t="shared" ref="L44:L62" si="16">I44-K44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
@@ -3669,21 +3715,21 @@
       <c r="H45" s="20"/>
       <c r="I45" s="21"/>
       <c r="K45" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
@@ -3693,21 +3739,21 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
       <c r="K46" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="20"/>
@@ -3717,21 +3763,21 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
       <c r="K47" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="20"/>
@@ -3741,21 +3787,21 @@
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
       <c r="K48" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20"/>
@@ -3765,21 +3811,21 @@
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
       <c r="K49" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20"/>
@@ -3789,21 +3835,21 @@
       <c r="H50" s="20"/>
       <c r="I50" s="21"/>
       <c r="K50" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20"/>
@@ -3813,21 +3859,21 @@
       <c r="H51" s="20"/>
       <c r="I51" s="21"/>
       <c r="K51" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
@@ -3837,21 +3883,21 @@
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
       <c r="K52" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
@@ -3861,21 +3907,21 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
       <c r="K53" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
@@ -3885,21 +3931,21 @@
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
       <c r="K54" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="20"/>
@@ -3909,21 +3955,21 @@
       <c r="H55" s="20"/>
       <c r="I55" s="21"/>
       <c r="K55" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
@@ -3933,21 +3979,21 @@
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
       <c r="K56" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="20"/>
@@ -3957,21 +4003,21 @@
       <c r="H57" s="20"/>
       <c r="I57" s="21"/>
       <c r="K57" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
@@ -3981,21 +4027,21 @@
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
       <c r="K58" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="20"/>
@@ -4005,21 +4051,21 @@
       <c r="H59" s="20"/>
       <c r="I59" s="21"/>
       <c r="K59" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="20"/>
@@ -4028,46 +4074,118 @@
       <c r="G60" s="39"/>
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="33"/>
+      <c r="K60" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M61" s="34"/>
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="K61" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M62" s="34"/>
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
+      <c r="K62" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M63" s="34"/>
+      <c r="A63">
+        <v>22</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="33"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="24"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="35"/>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I65" s="14">
-        <f>SUM(I40:I64)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="14">
-        <f>SUM(K40:K64)</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="14">
-        <f>SUM(L40:L64)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="36">
-        <f>SUM(M40:M64)</f>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="35"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I68" s="14">
+        <f>SUM(I43:I67)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="14">
+        <f>SUM(K43:K67)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="14">
+        <f>SUM(L43:L67)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="36">
+        <f>SUM(M43:M67)</f>
         <v>0</v>
       </c>
     </row>
